--- a/resumo_MC_FC_int2.xlsx
+++ b/resumo_MC_FC_int2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NetoDavi\Desktop\survival_pibic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C301722-956D-4752-8D37-44C5AE80D2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85461A0-A2F9-4722-A316-F2E181CE02F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-975" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{16ED0D79-9F9E-49EB-8194-2C5C13E1CF0A}"/>
+    <workbookView xWindow="-28920" yWindow="-975" windowWidth="29040" windowHeight="15840" xr2:uid="{16ED0D79-9F9E-49EB-8194-2C5C13E1CF0A}"/>
   </bookViews>
   <sheets>
     <sheet name="cenario1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="51">
   <si>
     <t>Parâmetro</t>
   </si>
@@ -194,8 +194,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -261,13 +262,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -293,6 +293,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -311,935 +318,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>179189</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>972502</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF717363-2045-8D55-8DA7-5BEF4BDDEB86}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4998839" y="1076325"/>
-          <a:ext cx="4831913" cy="1666875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>496025</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>38194</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28B0789C-C885-A871-CB53-E070D375453B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10772775" y="1181100"/>
-          <a:ext cx="5191850" cy="676369"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>48359</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>190604</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagem 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E433F01-12BC-B591-4BC5-0132FB61970F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10868025" y="2038350"/>
-          <a:ext cx="5258534" cy="743054"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>132468</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>534549</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>62190</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagem 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF96295D-299B-CE52-3551-15D9AD8858AD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16468725" y="332493"/>
-          <a:ext cx="1972824" cy="1139397"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>91766</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>68836</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagem 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7EE402B-1DA7-8C01-597F-CBF018799ED6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16440149" y="1501466"/>
-          <a:ext cx="2133601" cy="1158170"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>130711</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1067808</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>133664</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Imagem 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E1352DC-B17C-FB0A-7C4E-B3B8CB880003}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4991100" y="2921536"/>
-          <a:ext cx="4934958" cy="1536478"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>162683</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>57243</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Imagem 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{934E1E38-1764-17A3-7328-B96023721911}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10810875" y="2952750"/>
-          <a:ext cx="5430008" cy="666843"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>513318</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>124485</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>525023</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Imagem 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D8AE3C1-EBE1-5804-47BE-F07E8E436F34}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16591518" y="2715285"/>
-          <a:ext cx="1840505" cy="894690"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>534105</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>142947</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Imagem 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ABF18E4-00AE-B3C7-ED9B-9DB9ED25CB71}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10953750" y="3762375"/>
-          <a:ext cx="5048955" cy="514422"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>165940</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>29710</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>21247</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AC05674-ADE0-9488-6AE8-A0A04BEFE02A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16516350" y="3728290"/>
-          <a:ext cx="2029960" cy="1017357"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>48233</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1133474</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>112867</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Imagem 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85587AAE-BEC9-9A49-A7BE-0111C6507E70}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5105399" y="4572608"/>
-          <a:ext cx="4886325" cy="1598159"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>105555</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9633</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Imagem 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEDF740C-8FF7-C679-FE99-06238BA5F336}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10591800" y="4724400"/>
-          <a:ext cx="5591955" cy="771633"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>438892</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>19139</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Imagem 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD83C93E-178C-A405-8498-201F013625C1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10591800" y="5638800"/>
-          <a:ext cx="5315692" cy="638264"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>103750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>115437</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>143284</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Imagem 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFB5388C-637B-739F-A97F-D8F1BE43661C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16487775" y="4828150"/>
-          <a:ext cx="2753862" cy="992034"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>552449</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>169643</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>144028</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>147791</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Imagem 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65ED1C91-EB95-DA72-130B-3A161B3B432F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16630649" y="5846543"/>
-          <a:ext cx="2029979" cy="759198"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>178008</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Imagem 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06C8C561-563F-AB2C-9788-2D2B1093BDE9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5048250" y="6286500"/>
-          <a:ext cx="5143500" cy="1682958"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>315050</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>76290</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Imagem 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C962D85-3E9A-CF0E-D0D7-146AEBF0E933}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10591800" y="6457950"/>
-          <a:ext cx="5191850" cy="647790"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>158997</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>96408</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>105218</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Imagem 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B7C2DEF-64E0-5B34-1F8C-34A26E34D532}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16763999" y="6616947"/>
-          <a:ext cx="1849009" cy="708221"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>219780</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>123911</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Imagem 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9092379A-0306-0280-33B5-C5AC756E291B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10639425" y="7296150"/>
-          <a:ext cx="5048955" cy="619211"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>154471</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>115462</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>167350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Imagem 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C75A77D1-F4F8-9005-1223-92059CA8C13B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16725900" y="7374421"/>
-          <a:ext cx="2515762" cy="984429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>372476</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>114667</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Imagem 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4BBDC62-52A4-415A-781F-7263E66DF877}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19030950" y="5276850"/>
-          <a:ext cx="7173326" cy="2629267"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2245,10 +1323,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1EFFD1C-6A8B-4542-A6B8-6966A513FFA1}">
-  <dimension ref="A1:P55"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB29" sqref="AB29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2263,8 +1341,8 @@
     <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
@@ -2272,13 +1350,13 @@
         <v>600</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="4"/>
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2300,597 +1378,1164 @@
       <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="L5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>0.5</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="D6" s="10">
+      <c r="B6" s="4"/>
+      <c r="D6" s="9">
         <v>50</v>
       </c>
       <c r="E6" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="G6" s="13">
+        <v>1.5835142200018699</v>
+      </c>
+      <c r="H6" s="13">
+        <v>1.5530376605191201</v>
+      </c>
+      <c r="I6" s="13">
+        <v>43.955838181988398</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0.73666666666666702</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="4"/>
+      <c r="D7" s="10"/>
       <c r="E7" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>0.3</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="11"/>
+      <c r="G7" s="13">
+        <v>0.43324911399866001</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.27772323457776199</v>
+      </c>
+      <c r="I7" s="13">
+        <v>44.416371332886598</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0.85</v>
+      </c>
+      <c r="L7" s="12">
+        <v>0.18</v>
+      </c>
+      <c r="M7" s="12">
+        <v>0.34</v>
+      </c>
+      <c r="N7" s="12">
+        <v>0.38</v>
+      </c>
+      <c r="O7" s="12">
+        <v>0.37609999999999999</v>
+      </c>
+      <c r="P7" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="10"/>
       <c r="E8" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>0.9</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="13">
+        <v>1.5745399221988501</v>
+      </c>
+      <c r="H8" s="13">
+        <v>1.4484568004109799</v>
+      </c>
+      <c r="I8" s="13">
+        <v>74.9488802443162</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0.78333333333333299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="10"/>
       <c r="E9" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>0.8</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>10</v>
-      </c>
-      <c r="B10" s="5">
+      <c r="G9" s="13">
+        <v>1.1852173752658</v>
+      </c>
+      <c r="H9" s="13">
+        <v>1.2292906719706</v>
+      </c>
+      <c r="I9" s="13">
+        <v>48.152171908224702</v>
+      </c>
+      <c r="J9" s="13">
+        <v>0.79500000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4">
         <v>15</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="10"/>
       <c r="E10" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>1.2</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D11" s="11"/>
+      <c r="G10" s="13">
+        <v>3.0597349517562198</v>
+      </c>
+      <c r="H10" s="13">
+        <v>8.0968767104323192</v>
+      </c>
+      <c r="I10" s="13">
+        <v>154.977912646351</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0.82</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="D11" s="10"/>
       <c r="E11" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="P11" s="2"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="D12" s="11"/>
+      <c r="F11" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="G11" s="13">
+        <v>1.8085603322569199</v>
+      </c>
+      <c r="H11" s="13">
+        <v>6.5447685959958903</v>
+      </c>
+      <c r="I11" s="13">
+        <v>502.85344408563998</v>
+      </c>
+      <c r="J11" s="13">
+        <v>0.78666666666666696</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="D12" s="10"/>
       <c r="E12" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>-0.5</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="P12" s="2"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D13" s="11"/>
+      <c r="G12" s="13">
+        <v>-1.1032656953569999</v>
+      </c>
+      <c r="H12" s="13">
+        <v>7.6133544121718701</v>
+      </c>
+      <c r="I12" s="13">
+        <v>120.653139071401</v>
+      </c>
+      <c r="J12" s="13">
+        <v>0.78666666666666696</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="M12" s="12">
+        <v>0.18</v>
+      </c>
+      <c r="N12" s="12">
+        <v>0.22</v>
+      </c>
+      <c r="O12" s="12">
+        <v>0.21883333333333299</v>
+      </c>
+      <c r="P12" s="12">
+        <v>0.26</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D13" s="10"/>
       <c r="E13" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>-0.5</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="12"/>
-      <c r="E14" s="4" t="s">
+      <c r="G13" s="13">
+        <v>-0.56780631267214599</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0.56713299331422795</v>
+      </c>
+      <c r="I13" s="13">
+        <v>13.5612625344293</v>
+      </c>
+      <c r="J13" s="13">
+        <v>0.87333333333333296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="11"/>
+      <c r="E14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>0.8</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="N14" s="2"/>
-      <c r="P14" s="2"/>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="10">
-        <v>200</v>
+      <c r="G14" s="14">
+        <v>0.84137978313042705</v>
+      </c>
+      <c r="H14" s="14">
+        <v>0.35552878015035599</v>
+      </c>
+      <c r="I14" s="14">
+        <v>5.17247289130336</v>
+      </c>
+      <c r="J14" s="14">
+        <v>0.88666666666666705</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="9">
+        <v>100</v>
       </c>
       <c r="E15" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D16" s="11"/>
+      <c r="G15" s="13">
+        <v>1.2610769632491401</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0.91928244849072704</v>
+      </c>
+      <c r="I15" s="13">
+        <v>14.643360295376199</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0.80833333333333302</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+    </row>
+    <row r="16" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="10"/>
       <c r="E16" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <v>0.3</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="N16" s="2"/>
-      <c r="P16" s="2"/>
-    </row>
-    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D17" s="11"/>
+      <c r="G16" s="13">
+        <v>0.36494175331158302</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0.150347177501443</v>
+      </c>
+      <c r="I16" s="13">
+        <v>21.647251103860899</v>
+      </c>
+      <c r="J16" s="13">
+        <v>0.90833333333333299</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="4:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="10"/>
       <c r="E17" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <v>0.9</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="N17" s="2"/>
-      <c r="P17" s="2"/>
-    </row>
-    <row r="18" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D18" s="11"/>
+      <c r="G17" s="13">
+        <v>1.16578663940314</v>
+      </c>
+      <c r="H17" s="13">
+        <v>0.624497111114937</v>
+      </c>
+      <c r="I17" s="13">
+        <v>29.531848822571199</v>
+      </c>
+      <c r="J17" s="13">
+        <v>0.82166666666666699</v>
+      </c>
+      <c r="L17">
+        <v>0.13</v>
+      </c>
+      <c r="M17">
+        <v>0.19</v>
+      </c>
+      <c r="N17">
+        <v>0.22</v>
+      </c>
+      <c r="O17">
+        <v>0.22084999999999999</v>
+      </c>
+      <c r="P17">
+        <v>0.25</v>
+      </c>
+      <c r="Q17">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="18" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D18" s="10"/>
       <c r="E18" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <v>0.8</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D19" s="11"/>
+      <c r="G18" s="13">
+        <v>0.91565639065594695</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0.59731229010175901</v>
+      </c>
+      <c r="I18" s="13">
+        <v>14.457048831993299</v>
+      </c>
+      <c r="J18" s="13">
+        <v>0.84833333333333305</v>
+      </c>
+    </row>
+    <row r="19" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="10"/>
       <c r="E19" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <v>1.2</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D20" s="11"/>
+      <c r="G19" s="13">
+        <v>2.2427087462334199</v>
+      </c>
+      <c r="H19" s="13">
+        <v>9.05311916176721</v>
+      </c>
+      <c r="I19" s="13">
+        <v>86.892395519451497</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0.88333333333333297</v>
+      </c>
+    </row>
+    <row r="20" spans="4:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="10"/>
       <c r="E20" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D21" s="11"/>
+      <c r="F20" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="G20" s="13">
+        <v>0.860142663199566</v>
+      </c>
+      <c r="H20" s="13">
+        <v>7.0572034830327697</v>
+      </c>
+      <c r="I20" s="13">
+        <v>186.71422106652199</v>
+      </c>
+      <c r="J20" s="13">
+        <v>0.87666666666666704</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+    </row>
+    <row r="21" spans="4:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="10"/>
       <c r="E21" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <v>-0.5</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D22" s="11"/>
+      <c r="G21" s="13">
+        <v>-1.2005108757101799</v>
+      </c>
+      <c r="H21" s="13">
+        <v>5.9536396482776404</v>
+      </c>
+      <c r="I21" s="13">
+        <v>140.102175142036</v>
+      </c>
+      <c r="J21" s="13">
+        <v>0.85166666666666702</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="4:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="10"/>
       <c r="E22" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <v>-0.5</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="12"/>
-      <c r="E23" s="4" t="s">
+      <c r="G22" s="13">
+        <v>-0.50671974308048495</v>
+      </c>
+      <c r="H22" s="13">
+        <v>0.356447926678852</v>
+      </c>
+      <c r="I22" s="13">
+        <v>1.34394861609705</v>
+      </c>
+      <c r="J22" s="13">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="L22">
+        <v>0.24</v>
+      </c>
+      <c r="M22">
+        <v>0.35</v>
+      </c>
+      <c r="N22">
+        <v>0.38</v>
+      </c>
+      <c r="O22">
+        <v>0.37736666666666702</v>
+      </c>
+      <c r="P22">
+        <v>0.41</v>
+      </c>
+      <c r="Q22">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="23" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="11"/>
+      <c r="E23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="6">
         <v>0.8</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="4:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="10">
+      <c r="G23" s="14">
+        <v>0.83401618178825498</v>
+      </c>
+      <c r="H23" s="14">
+        <v>0.218383595368316</v>
+      </c>
+      <c r="I23" s="14">
+        <v>4.2520227235319101</v>
+      </c>
+      <c r="J23" s="14">
+        <v>0.90166666666666695</v>
+      </c>
+    </row>
+    <row r="24" spans="4:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="9">
         <v>500</v>
       </c>
       <c r="E24" t="s">
         <v>1</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D25" s="11"/>
+      <c r="G24" s="13">
+        <v>1.19563532348684</v>
+      </c>
+      <c r="H24" s="13">
+        <v>0.40877641922443703</v>
+      </c>
+      <c r="I24" s="13">
+        <v>8.6941203169852592</v>
+      </c>
+      <c r="J24" s="13">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+    </row>
+    <row r="25" spans="4:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="10"/>
       <c r="E25" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <v>0.3</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D26" s="11"/>
+      <c r="G25" s="13">
+        <v>0.34467880548397301</v>
+      </c>
+      <c r="H25" s="13">
+        <v>5.34022875487868E-2</v>
+      </c>
+      <c r="I25" s="13">
+        <v>14.892935161324401</v>
+      </c>
+      <c r="J25" s="13">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="4:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="10"/>
       <c r="E26" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="5">
         <v>0.9</v>
       </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D27" s="11"/>
+      <c r="G26" s="13">
+        <v>1.0018803790725499</v>
+      </c>
+      <c r="H26" s="13">
+        <v>0.21689472534207199</v>
+      </c>
+      <c r="I26" s="13">
+        <v>11.320042119172401</v>
+      </c>
+      <c r="J26" s="13">
+        <v>0.88833333333333298</v>
+      </c>
+      <c r="L26">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="M26">
+        <v>0.36</v>
+      </c>
+      <c r="N26">
+        <v>0.376</v>
+      </c>
+      <c r="O26">
+        <v>0.37496000000000002</v>
+      </c>
+      <c r="P26">
+        <v>0.39</v>
+      </c>
+      <c r="Q26">
+        <v>0.434</v>
+      </c>
+    </row>
+    <row r="27" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D27" s="10"/>
       <c r="E27" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="5">
         <v>0.8</v>
       </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D28" s="11"/>
+      <c r="G27" s="13">
+        <v>0.85060949666241903</v>
+      </c>
+      <c r="H27" s="13">
+        <v>0.20221207443166</v>
+      </c>
+      <c r="I27" s="13">
+        <v>6.3261870828023303</v>
+      </c>
+      <c r="J27" s="13">
+        <v>0.88166666666666704</v>
+      </c>
+    </row>
+    <row r="28" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="10"/>
       <c r="E28" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="5">
         <v>1.2</v>
       </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D29" s="11"/>
+      <c r="G28" s="13">
+        <v>1.19783345209417</v>
+      </c>
+      <c r="H28" s="13">
+        <v>0.237038734681628</v>
+      </c>
+      <c r="I28" s="13">
+        <v>-0.18054565881903201</v>
+      </c>
+      <c r="J28" s="13">
+        <v>0.93166666666666698</v>
+      </c>
+    </row>
+    <row r="29" spans="4:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="10"/>
       <c r="E29" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D30" s="11"/>
+      <c r="F29" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="G29" s="13">
+        <v>0.32117564538762799</v>
+      </c>
+      <c r="H29" s="13">
+        <v>0.291486326402842</v>
+      </c>
+      <c r="I29" s="13">
+        <v>7.0585484625427801</v>
+      </c>
+      <c r="J29" s="13">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+    </row>
+    <row r="30" spans="4:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="10"/>
       <c r="E30" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="5">
         <v>-0.5</v>
       </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D31" s="11"/>
+      <c r="G30" s="13">
+        <v>-0.48912462210552399</v>
+      </c>
+      <c r="H30" s="13">
+        <v>0.203704502306982</v>
+      </c>
+      <c r="I30" s="13">
+        <v>-2.1750755788950999</v>
+      </c>
+      <c r="J30" s="13">
+        <v>0.94166666666666698</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="4:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="10"/>
       <c r="E31" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="5">
         <v>-0.5</v>
       </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="12"/>
-      <c r="E32" s="4" t="s">
+      <c r="G31" s="13">
+        <v>-0.50407715535560704</v>
+      </c>
+      <c r="H31" s="13">
+        <v>0.14669022026242301</v>
+      </c>
+      <c r="I31" s="13">
+        <v>0.81543107112131397</v>
+      </c>
+      <c r="J31" s="13">
+        <v>0.94666666666666699</v>
+      </c>
+      <c r="L31">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="M31">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="N31">
+        <v>0.216</v>
+      </c>
+      <c r="O31">
+        <v>0.217126666666667</v>
+      </c>
+      <c r="P31">
+        <v>0.23</v>
+      </c>
+      <c r="Q31">
+        <v>0.26200000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="11"/>
+      <c r="E32" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="6">
         <v>0.8</v>
       </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-    </row>
-    <row r="33" spans="4:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="10">
+      <c r="G32" s="14">
+        <v>0.80536620640495205</v>
+      </c>
+      <c r="H32" s="14">
+        <v>8.2453280358199793E-2</v>
+      </c>
+      <c r="I32" s="14">
+        <v>0.67077580061905795</v>
+      </c>
+      <c r="J32" s="14">
+        <v>0.94166666666666698</v>
+      </c>
+    </row>
+    <row r="33" spans="4:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="9">
         <v>1000</v>
       </c>
       <c r="E33" t="s">
         <v>1</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-    </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D34" s="11"/>
+      <c r="G33" s="13">
+        <v>1.20454950452261</v>
+      </c>
+      <c r="H33" s="13">
+        <v>0.29177046104860799</v>
+      </c>
+      <c r="I33" s="13">
+        <v>9.5045004111462301</v>
+      </c>
+      <c r="J33" s="13">
+        <v>0.88</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+    </row>
+    <row r="34" spans="4:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="10"/>
       <c r="E34" t="s">
         <v>2</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="5">
         <v>0.3</v>
       </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-    </row>
-    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D35" s="11"/>
+      <c r="G34" s="13">
+        <v>0.33910484676570302</v>
+      </c>
+      <c r="H34" s="13">
+        <v>3.5682845644554699E-2</v>
+      </c>
+      <c r="I34" s="13">
+        <v>13.034948921901099</v>
+      </c>
+      <c r="J34" s="13">
+        <v>0.92</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="4:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="10"/>
       <c r="E35" t="s">
         <v>3</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="5">
         <v>0.9</v>
       </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-    </row>
-    <row r="36" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D36" s="11"/>
+      <c r="G35" s="13">
+        <v>0.974211636825007</v>
+      </c>
+      <c r="H35" s="13">
+        <v>0.152101710323432</v>
+      </c>
+      <c r="I35" s="13">
+        <v>8.2457374250007707</v>
+      </c>
+      <c r="J35" s="13">
+        <v>0.90833333333333299</v>
+      </c>
+      <c r="L35">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="M35">
+        <v>0.36575000000000002</v>
+      </c>
+      <c r="N35">
+        <v>0.376</v>
+      </c>
+      <c r="O35">
+        <v>0.37614833333333297</v>
+      </c>
+      <c r="P35">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="Q35">
+        <v>0.42499999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D36" s="10"/>
       <c r="E36" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="5">
         <v>0.8</v>
       </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-    </row>
-    <row r="37" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D37" s="11"/>
+      <c r="G36" s="13">
+        <v>0.85524784765595596</v>
+      </c>
+      <c r="H36" s="13">
+        <v>0.141703304804882</v>
+      </c>
+      <c r="I36" s="13">
+        <v>6.9059809569944299</v>
+      </c>
+      <c r="J36" s="13">
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="10"/>
       <c r="E37" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="5">
         <v>1.2</v>
       </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-    </row>
-    <row r="38" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D38" s="11"/>
+      <c r="G37" s="13">
+        <v>1.1936208256768099</v>
+      </c>
+      <c r="H37" s="13">
+        <v>0.16019815500842399</v>
+      </c>
+      <c r="I37" s="13">
+        <v>-0.53159786026585099</v>
+      </c>
+      <c r="J37" s="13">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="38" spans="4:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="10"/>
       <c r="E38" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-    </row>
-    <row r="39" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D39" s="11"/>
+      <c r="F38" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="G38" s="13">
+        <v>0.300081242605999</v>
+      </c>
+      <c r="H38" s="13">
+        <v>0.21862853677678201</v>
+      </c>
+      <c r="I38" s="13">
+        <v>2.7080868666393001E-2</v>
+      </c>
+      <c r="J38" s="13">
+        <v>0.94166666666666698</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+    </row>
+    <row r="39" spans="4:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="10"/>
       <c r="E39" t="s">
         <v>11</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="5">
         <v>-0.5</v>
       </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-    </row>
-    <row r="40" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D40" s="11"/>
+      <c r="G39" s="13">
+        <v>-0.48871880327920098</v>
+      </c>
+      <c r="H39" s="13">
+        <v>0.14938016314814401</v>
+      </c>
+      <c r="I39" s="13">
+        <v>-2.25623934415986</v>
+      </c>
+      <c r="J39" s="13">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="4:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="10"/>
       <c r="E40" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="5">
         <v>-0.5</v>
       </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-    </row>
-    <row r="41" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D41" s="12"/>
-      <c r="E41" s="4" t="s">
+      <c r="G40" s="13">
+        <v>-0.498150960822281</v>
+      </c>
+      <c r="H40" s="13">
+        <v>0.103914882705589</v>
+      </c>
+      <c r="I40" s="13">
+        <v>-0.36980783554375501</v>
+      </c>
+      <c r="J40" s="13">
+        <v>0.94833333333333303</v>
+      </c>
+      <c r="L40">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="M40">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="N40">
+        <v>0.218</v>
+      </c>
+      <c r="O40">
+        <v>0.21782000000000001</v>
+      </c>
+      <c r="P40">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="Q40">
+        <v>0.26400000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D41" s="11"/>
+      <c r="E41" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="6">
         <v>0.8</v>
       </c>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-    </row>
-    <row r="42" spans="4:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D44" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="45" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="4:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D46" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-    </row>
-    <row r="47" spans="4:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D47" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="4:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-    </row>
-    <row r="54" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D54" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="55" spans="4:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="G41" s="14">
+        <v>0.80190600277416302</v>
+      </c>
+      <c r="H41" s="14">
+        <v>5.4578581815900203E-2</v>
+      </c>
+      <c r="I41" s="14">
+        <v>0.23825034677038301</v>
+      </c>
+      <c r="J41" s="14">
+        <v>0.96333333333333304</v>
+      </c>
+    </row>
+    <row r="42" spans="4:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="D53:I53"/>
+  <mergeCells count="12">
+    <mergeCell ref="L29:Q29"/>
+    <mergeCell ref="L33:Q33"/>
+    <mergeCell ref="L38:Q38"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="L20:Q20"/>
+    <mergeCell ref="L24:Q24"/>
+    <mergeCell ref="L5:Q5"/>
+    <mergeCell ref="L10:Q10"/>
     <mergeCell ref="D6:D14"/>
     <mergeCell ref="D15:D23"/>
     <mergeCell ref="D24:D32"/>
     <mergeCell ref="D33:D41"/>
-    <mergeCell ref="D46:I46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2898,8 +2543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC05885F-58D3-4928-9531-621AEEAEC298}">
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46:I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2929,7 +2574,7 @@
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="4"/>
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2953,17 +2598,17 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>0.5</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="D6" s="10">
+      <c r="B6" s="4"/>
+      <c r="D6" s="9">
         <v>50</v>
       </c>
       <c r="E6" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>1.1000000000000001</v>
       </c>
       <c r="G6">
@@ -2980,15 +2625,15 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="4"/>
+      <c r="D7" s="10"/>
       <c r="E7" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>0.3</v>
       </c>
       <c r="G7" t="s">
@@ -3005,11 +2650,11 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="11"/>
+      <c r="D8" s="10"/>
       <c r="E8" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>0.9</v>
       </c>
       <c r="G8">
@@ -3032,11 +2677,11 @@
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="10"/>
       <c r="E9" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>0.8</v>
       </c>
       <c r="G9">
@@ -3060,11 +2705,11 @@
       <c r="B10" s="1">
         <v>10</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="10"/>
       <c r="E10" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>1.2</v>
       </c>
       <c r="G10">
@@ -3082,11 +2727,11 @@
       <c r="P10" s="2"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="11"/>
+      <c r="D11" s="10"/>
       <c r="E11" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>0.5</v>
       </c>
       <c r="G11">
@@ -3104,13 +2749,13 @@
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="D12" s="11"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="D12" s="10"/>
       <c r="E12" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>-0.5</v>
       </c>
       <c r="G12">
@@ -3128,11 +2773,11 @@
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D13" s="11"/>
+      <c r="D13" s="10"/>
       <c r="E13" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>-0.5</v>
       </c>
       <c r="G13" t="s">
@@ -3149,11 +2794,11 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="12"/>
-      <c r="E14" s="4" t="s">
+      <c r="D14" s="11"/>
+      <c r="E14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>0.8</v>
       </c>
       <c r="G14" t="s">
@@ -3172,13 +2817,13 @@
       <c r="P14" s="2"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>100</v>
       </c>
       <c r="E15" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>1.1000000000000001</v>
       </c>
       <c r="G15">
@@ -3195,11 +2840,11 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D16" s="11"/>
+      <c r="D16" s="10"/>
       <c r="E16" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <v>0.3</v>
       </c>
       <c r="G16">
@@ -3218,11 +2863,11 @@
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D17" s="11"/>
+      <c r="D17" s="10"/>
       <c r="E17" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <v>0.9</v>
       </c>
       <c r="G17">
@@ -3241,11 +2886,11 @@
       <c r="P17" s="2"/>
     </row>
     <row r="18" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D18" s="11"/>
+      <c r="D18" s="10"/>
       <c r="E18" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <v>0.8</v>
       </c>
       <c r="G18">
@@ -3262,11 +2907,11 @@
       </c>
     </row>
     <row r="19" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D19" s="11"/>
+      <c r="D19" s="10"/>
       <c r="E19" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <v>1.2</v>
       </c>
       <c r="G19">
@@ -3283,11 +2928,11 @@
       </c>
     </row>
     <row r="20" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D20" s="11"/>
+      <c r="D20" s="10"/>
       <c r="E20" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <v>0.5</v>
       </c>
       <c r="G20">
@@ -3304,11 +2949,11 @@
       </c>
     </row>
     <row r="21" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D21" s="11"/>
+      <c r="D21" s="10"/>
       <c r="E21" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <v>-0.5</v>
       </c>
       <c r="G21">
@@ -3325,11 +2970,11 @@
       </c>
     </row>
     <row r="22" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D22" s="11"/>
+      <c r="D22" s="10"/>
       <c r="E22" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <v>-0.5</v>
       </c>
       <c r="G22">
@@ -3346,11 +2991,11 @@
       </c>
     </row>
     <row r="23" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="12"/>
-      <c r="E23" s="4" t="s">
+      <c r="D23" s="11"/>
+      <c r="E23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="6">
         <v>0.8</v>
       </c>
       <c r="G23">
@@ -3367,13 +3012,13 @@
       </c>
     </row>
     <row r="24" spans="4:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="10">
+      <c r="D24" s="9">
         <v>500</v>
       </c>
       <c r="E24" t="s">
         <v>1</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <v>1.1000000000000001</v>
       </c>
       <c r="G24">
@@ -3390,11 +3035,11 @@
       </c>
     </row>
     <row r="25" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D25" s="11"/>
+      <c r="D25" s="10"/>
       <c r="E25" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <v>0.3</v>
       </c>
       <c r="G25">
@@ -3411,11 +3056,11 @@
       </c>
     </row>
     <row r="26" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D26" s="11"/>
+      <c r="D26" s="10"/>
       <c r="E26" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="5">
         <v>0.9</v>
       </c>
       <c r="G26">
@@ -3432,11 +3077,11 @@
       </c>
     </row>
     <row r="27" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D27" s="11"/>
+      <c r="D27" s="10"/>
       <c r="E27" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="5">
         <v>0.8</v>
       </c>
       <c r="G27">
@@ -3453,11 +3098,11 @@
       </c>
     </row>
     <row r="28" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D28" s="11"/>
+      <c r="D28" s="10"/>
       <c r="E28" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="5">
         <v>1.2</v>
       </c>
       <c r="G28">
@@ -3474,11 +3119,11 @@
       </c>
     </row>
     <row r="29" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D29" s="11"/>
+      <c r="D29" s="10"/>
       <c r="E29" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="5">
         <v>0.5</v>
       </c>
       <c r="G29">
@@ -3495,11 +3140,11 @@
       </c>
     </row>
     <row r="30" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D30" s="11"/>
+      <c r="D30" s="10"/>
       <c r="E30" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="5">
         <v>-0.5</v>
       </c>
       <c r="G30">
@@ -3516,11 +3161,11 @@
       </c>
     </row>
     <row r="31" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D31" s="11"/>
+      <c r="D31" s="10"/>
       <c r="E31" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="5">
         <v>-0.5</v>
       </c>
       <c r="G31">
@@ -3537,11 +3182,11 @@
       </c>
     </row>
     <row r="32" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="12"/>
-      <c r="E32" s="4" t="s">
+      <c r="D32" s="11"/>
+      <c r="E32" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="6">
         <v>0.8</v>
       </c>
       <c r="G32">
@@ -3558,13 +3203,13 @@
       </c>
     </row>
     <row r="33" spans="4:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="10">
+      <c r="D33" s="9">
         <v>1000</v>
       </c>
       <c r="E33" t="s">
         <v>1</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="5">
         <v>1.1000000000000001</v>
       </c>
       <c r="G33">
@@ -3581,11 +3226,11 @@
       </c>
     </row>
     <row r="34" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D34" s="11"/>
+      <c r="D34" s="10"/>
       <c r="E34" t="s">
         <v>2</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="5">
         <v>0.3</v>
       </c>
       <c r="G34">
@@ -3602,11 +3247,11 @@
       </c>
     </row>
     <row r="35" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D35" s="11"/>
+      <c r="D35" s="10"/>
       <c r="E35" t="s">
         <v>3</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="5">
         <v>0.9</v>
       </c>
       <c r="G35">
@@ -3623,11 +3268,11 @@
       </c>
     </row>
     <row r="36" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D36" s="11"/>
+      <c r="D36" s="10"/>
       <c r="E36" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="5">
         <v>0.8</v>
       </c>
       <c r="G36">
@@ -3644,11 +3289,11 @@
       </c>
     </row>
     <row r="37" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D37" s="11"/>
+      <c r="D37" s="10"/>
       <c r="E37" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="5">
         <v>1.2</v>
       </c>
       <c r="G37">
@@ -3665,11 +3310,11 @@
       </c>
     </row>
     <row r="38" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D38" s="11"/>
+      <c r="D38" s="10"/>
       <c r="E38" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="5">
         <v>0.5</v>
       </c>
       <c r="G38">
@@ -3686,11 +3331,11 @@
       </c>
     </row>
     <row r="39" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D39" s="11"/>
+      <c r="D39" s="10"/>
       <c r="E39" t="s">
         <v>11</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="5">
         <v>-0.5</v>
       </c>
       <c r="G39">
@@ -3707,11 +3352,11 @@
       </c>
     </row>
     <row r="40" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D40" s="11"/>
+      <c r="D40" s="10"/>
       <c r="E40" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="5">
         <v>-0.5</v>
       </c>
       <c r="G40">
@@ -3728,11 +3373,11 @@
       </c>
     </row>
     <row r="41" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D41" s="12"/>
-      <c r="E41" s="4" t="s">
+      <c r="D41" s="11"/>
+      <c r="E41" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="6">
         <v>0.8</v>
       </c>
       <c r="G41">
@@ -3756,46 +3401,46 @@
     </row>
     <row r="45" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="4:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
     </row>
     <row r="47" spans="4:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G47" s="8" t="s">
+      <c r="G47" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H47" s="8" t="s">
+      <c r="H47" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I47" s="8" t="s">
+      <c r="I47" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="48" spans="4:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
     </row>
     <row r="54" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D54" s="1" t="s">
